--- a/biology/Médecine/1541_en_santé_et_médecine/1541_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1541_en_santé_et_médecine/1541_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1541_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1541_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1541 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1541_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1541_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12 septembre : Sébastien Leblanc donne « une maison avec jardin sur la paroisse de Saint-Maurice à Charenton pour y ouvrir aux pauvres un petit hôpital de cinq lits », établissement qui est à l'origine de l'ancien asile de Charenton, devenu l'actuel hôpital Esquirol[1].
-Fondation de l'hospice Sainte-Catherine, dit des Vieillettes, « par Jean Barge, bourgeois de Lille, et sa femme Marguerite Leroux, qui  font don d'une maison rue de Sailly (rue des Trois-Mollettes) avec les meubles nécessaires pour loger, nourrir et entretenir treize pauvres chartriers [sic pour chartrières (impotentes)] de la ville jusqu'à la mort de la dernière vivante[2],[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 septembre : Sébastien Leblanc donne « une maison avec jardin sur la paroisse de Saint-Maurice à Charenton pour y ouvrir aux pauvres un petit hôpital de cinq lits », établissement qui est à l'origine de l'ancien asile de Charenton, devenu l'actuel hôpital Esquirol.
+Fondation de l'hospice Sainte-Catherine, dit des Vieillettes, « par Jean Barge, bourgeois de Lille, et sa femme Marguerite Leroux, qui  font don d'une maison rue de Sailly (rue des Trois-Mollettes) avec les meubles nécessaires pour loger, nourrir et entretenir treize pauvres chartriers [sic pour chartrières (impotentes)] de la ville jusqu'à la mort de la dernière vivante, ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1541_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1541_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Londres, Henri VIII promulgue l'acte d'union entre les barbiers et les chirurgiens[4].
-Les capucins d'Arles rapportent l'inondation de la Saint-Martin, qui « causa une grande peste et mortalité[5] ».
-Jacques Cartier rapporte quelques graines de tabac d'Amérique du Nord[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Londres, Henri VIII promulgue l'acte d'union entre les barbiers et les chirurgiens.
+Les capucins d'Arles rapportent l'inondation de la Saint-Martin, qui « causa une grande peste et mortalité ».
+Jacques Cartier rapporte quelques graines de tabac d'Amérique du Nord.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1541_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1541_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6 avril : Michele Mercati (mort en 1593), médecin italien, directeur du jardin botanique de Rome[7],[8].
-26 octobre : Jean Bauhin (mort en 1612), médecin et naturaliste suisse[9],[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 avril : Michele Mercati (mort en 1593), médecin italien, directeur du jardin botanique de Rome,.
+26 octobre : Jean Bauhin (mort en 1612), médecin et naturaliste suisse,.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1541_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1541_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24 septembre : Paracelse (né en 1493), médecin et alchimiste suisse[11].
-Vers 1541 : Jean Falcon (né à une date inconnue), médecin d'origine espagnole, docteur de l'université de Montpellier[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 septembre : Paracelse (né en 1493), médecin et alchimiste suisse.
+Vers 1541 : Jean Falcon (né à une date inconnue), médecin d'origine espagnole, docteur de l'université de Montpellier.
 </t>
         </is>
       </c>
